--- a/data/Dataset_Editorial_Boards_Complete.xlsx
+++ b/data/Dataset_Editorial_Boards_Complete.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://boras-my.sharepoint.com/personal/marco_schirone_hb_se/Documents/PhD/Project_4/Editorial_Board_Analysis/Editorial_Boards_Files/Final_Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://boras-my.sharepoint.com/personal/marco_schirone_hb_se/Documents/PhD/Project_4/editorial_network_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_115933DF0928FF52062A88C7FB012D169101E1D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E60C2D5D-6D53-C64D-B317-0DEA59C94545}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_115933DF0928FF52062A88C7FB012D169101E1D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{746044CB-BF24-D046-968A-342A9DEF7B2E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1787,11 +1787,14 @@
   <dimension ref="A1:R151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection sqref="A1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="10" max="10" width="116.5" customWidth="1"/>
+    <col min="12" max="12" width="62" customWidth="1"/>
     <col min="15" max="15" width="68" customWidth="1"/>
   </cols>
   <sheetData>
